--- a/AWS Elasticsearch Max Shard and Cost Calculator.xlsx
+++ b/AWS Elasticsearch Max Shard and Cost Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vorapoap/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C3E22B-57AD-CE46-8947-291111382BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF32E75F-97D1-2540-8BB9-728A5905EB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,13 +503,13 @@
     <t>1. ENTER MASTER NODE AMOUNT IN COLUMN R</t>
   </si>
   <si>
-    <t>MAX SHARD =  (MEM/2)*20*NUMBER OF NDOE</t>
-  </si>
-  <si>
     <t>BY VORAPOAP LOHWONGWATABA</t>
   </si>
   <si>
     <t>https://github.com/vorapoap</t>
+  </si>
+  <si>
+    <t>MAX SHARD =  (MEM/2)*20*NUMBER OF NODES</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1104,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
